--- a/biology/Botanique/Costus_spicatus/Costus_spicatus.xlsx
+++ b/biology/Botanique/Costus_spicatus/Costus_spicatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Costus spicatus est une espèce de plante vivace de la famille des Costaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Costus spicatus est originaire d'Amérique du Sud et des Caraïbes, (incluant Dominica, la République dominicaine, la Guadeloupe, la Martinique et Porto Rico).
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Costus spicatus est une plante herbacée qui peut mesurer jusqu'à 2 mètres de haut.
 Les feuilles de Costus spicatus ont une longueur d'environ 30 cm et une largeur de 10 cm.
@@ -579,9 +595,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 sept 2011)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 sept 2011) :
 Alpinia spicata Jacq., Select. Stirp. Amer. Hist.: 1 (1763).
 Amomum petiolatum Lam., Encycl. 1: 136 (1783).</t>
         </is>
